--- a/biology/Histoire de la zoologie et de la botanique/William_Syer_Bristowe/William_Syer_Bristowe.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/William_Syer_Bristowe/William_Syer_Bristowe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Syer Bristowe est un arachnologiste britannique amateur, né le 1er septembre 1901 à Stoke d'Abernon dans le Surrey et mort le 11 janvier 1979.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né dans une famille qui compte de nombreux passionnés d’histoire naturelle, dont son père, il s’intéresse très tôt à la nature et tout particulièrement aux araignées. Il commence à fréquenter Cambridge en 1920 et participe, durant la période des vacances en 1921 et 1923, à des expéditions scientifiques sur l’île de Jan Mayen dans le nord de l’Atlantique et dans le centre du Brésil. Ces voyages lui permettent de faire paraître ses deux premiers articles sur les araignées. Blessé durant un match de rugby en 1924, il échoue à ses examens.
 Il entre alors chez Brunner Mond qui sera plus tard acheté par l’Imperial Chemical Industries. Il y restera jusqu’en 1962, date de son départ à la retraite. Il dirige notamment le service du personnel durant quatorze ans. Son travail lui permet de se rendre en Malaisie, en Thaïlande et en Indonésie. Ces voyages lui permettent d’y étudier la faune et il redécouvre ainsi l’araignée primitive Liphistius desultor (qui n’avait pas été vue depuis 1875) où il observe les mœurs des araignées du genre Desis.
@@ -545,7 +559,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>George Hazelwood Locket et A.Frank Millidge (1979), William Syer Bristowe (1901-1979), Bulletin of the British Arachnological Society. 4 (8) : 361-365 (article qui donne la liste des travaux de W.S. Bristowe).</t>
         </is>
